--- a/level-3/hackerearth/phase-3-mathematics-strings-1/hackerearth-phase-3-mathematics-strings-1.xlsx
+++ b/level-3/hackerearth/phase-3-mathematics-strings-1/hackerearth-phase-3-mathematics-strings-1.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFCEC5-3A2B-47A5-A05F-351E260D2D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2C1C0-4A01-41B8-BEE8-9260A38C44B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - math - strings 1" sheetId="14" r:id="rId1"/>
+    <sheet name="mathematics-strings-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -537,12 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -555,19 +568,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,81 +1015,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C105)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C105)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H105)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1101,17 +1108,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1122,16 +1129,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1152,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1173,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1190,11 +1197,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H24" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H24" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1211,11 +1218,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1232,11 +1239,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1253,11 +1260,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1268,17 +1275,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1295,11 +1302,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1316,11 +1323,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1337,11 +1344,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1358,11 +1365,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1379,11 +1386,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1394,17 +1401,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1421,11 +1428,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1442,11 +1449,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1457,17 +1464,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1484,11 +1491,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1505,11 +1512,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1526,11 +1533,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1541,17 +1548,17 @@
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" ref="H25:H34" si="1">SUM(C25:G25)</f>
+        <f t="shared" ref="H25:H34" si="2">SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1568,11 +1575,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1583,17 +1590,17 @@
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1610,11 +1617,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1631,11 +1638,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1652,11 +1659,11 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1673,11 +1680,11 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1688,17 +1695,17 @@
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1709,17 +1716,17 @@
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1730,17 +1737,17 @@
       <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1751,16 +1758,16 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" ref="H35:H71" si="2">SUM(C35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="13" t="s">
+        <f t="shared" ref="H35:H71" si="3">SUM(C35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1771,16 +1778,16 @@
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1791,16 +1798,16 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1811,16 +1818,16 @@
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1831,16 +1838,16 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1851,16 +1858,16 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1871,16 +1878,16 @@
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1891,16 +1898,16 @@
       <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1911,16 +1918,16 @@
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1931,16 +1938,16 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1951,16 +1958,16 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1971,16 +1978,16 @@
       <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1992,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2007,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2022,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2037,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2051,11 +2058,11 @@
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="11">
-        <f t="shared" ref="H51:H65" si="3">SUM(C51:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="13" t="s">
+      <c r="H51" s="7">
+        <f t="shared" ref="H51:H65" si="4">SUM(C51:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2066,11 +2073,11 @@
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="13" t="s">
+      <c r="H52" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2081,11 +2088,11 @@
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="13" t="s">
+      <c r="H53" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2096,11 +2103,11 @@
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="13" t="s">
+      <c r="H54" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2111,11 +2118,11 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="13" t="s">
+      <c r="H55" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2126,11 +2133,11 @@
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="13" t="s">
+      <c r="H56" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2141,11 +2148,11 @@
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="13" t="s">
+      <c r="H57" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2156,11 +2163,11 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="13" t="s">
+      <c r="H58" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2171,11 +2178,11 @@
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="H59" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2186,11 +2193,11 @@
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="13" t="s">
+      <c r="H60" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2201,11 +2208,11 @@
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="13" t="s">
+      <c r="H61" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2216,11 +2223,11 @@
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="13" t="s">
+      <c r="H62" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2231,11 +2238,11 @@
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="13" t="s">
+      <c r="H63" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2246,11 +2253,11 @@
       <c r="B64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="13" t="s">
+      <c r="H64" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2261,11 +2268,11 @@
       <c r="B65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="13" t="s">
+      <c r="H65" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2277,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2292,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2307,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2322,10 +2329,10 @@
         <v>2</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2337,10 +2344,10 @@
         <v>2</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2352,10 +2359,10 @@
         <v>2</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2366,11 +2373,11 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="11">
-        <f t="shared" ref="H72:H97" si="4">SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="13" t="s">
+      <c r="H72" s="7">
+        <f t="shared" ref="H72:H97" si="5">SUM(C72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2381,11 +2388,11 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="13" t="s">
+      <c r="H73" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2396,11 +2403,11 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H74" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="13" t="s">
+      <c r="H74" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2411,11 +2418,11 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="13" t="s">
+      <c r="H75" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2426,11 +2433,11 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="s">
+      <c r="H76" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2441,11 +2448,11 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="13" t="s">
+      <c r="H77" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2456,11 +2463,11 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="s">
+      <c r="H78" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2471,11 +2478,11 @@
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="13" t="s">
+      <c r="H79" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2487,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2502,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2517,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2532,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2547,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2562,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2577,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2592,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2607,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2622,10 +2629,10 @@
         <v>1</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2637,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2652,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2667,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2682,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2697,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2712,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2727,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2742,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="13" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2756,16 +2763,16 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
         <f>SUM(C98:G98)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2776,16 +2783,16 @@
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7">
         <f>SUM(C99:G99)</f>
         <v>0</v>
       </c>
-      <c r="J99" s="13" t="s">
+      <c r="J99" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2805,7 +2812,7 @@
         <f>SUM(C100:G100)</f>
         <v>0</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="J100" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2816,16 +2823,16 @@
       <c r="B101" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="7">
         <f>SUM(C101:G101)</f>
         <v>0</v>
       </c>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2842,10 +2849,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" ref="H102:H105" si="5">SUM(C102:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="13" t="s">
+        <f t="shared" ref="H102:H105" si="6">SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2862,10 +2869,10 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="13" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2876,16 +2883,16 @@
       <c r="B104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="13" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2896,36 +2903,36 @@
       <c r="B105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="13" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="11"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="11"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>

--- a/level-3/hackerearth/phase-3-mathematics-strings-1/hackerearth-phase-3-mathematics-strings-1.xlsx
+++ b/level-3/hackerearth/phase-3-mathematics-strings-1/hackerearth-phase-3-mathematics-strings-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2C1C0-4A01-41B8-BEE8-9260A38C44B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AFA388-CD22-4706-A6BE-3C377FC2F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C105)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C115)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
@@ -3193,41 +3193,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J71">
-    <cfRule type="cellIs" dxfId="6" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="5" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{3481A28B-9B4D-466C-8358-E8BA527A6685}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{9F1722F2-47A1-4B43-8670-081A77FF57F1}"/>
